--- a/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:23</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:37</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 06:12</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 06:12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 06:46</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 06:46</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 06:17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 06:17</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:56</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:56</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 07:49</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 07:49</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:43</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:43</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 09:15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 09:15</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>06/05/2022 01:59</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>06/05/2022 01:59</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 05:19</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 05:19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 06:54</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 06:54</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:09</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:09</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 06:01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 06:01</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 08:24</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 08:24</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 10:11</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 10:11</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 13:07</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 13:07</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 08:51</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 08:51</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 03:18</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 03:18</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 08:09</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 08:09</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 11:54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 11:54</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 07:31</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 07:31</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 12:24</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 12:24</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 10:57</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 10:57</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 08:12</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 08:12</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 04:02</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 04:02</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 03:08</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 03:08</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 08:36</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 08:36</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 05:22</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 05:22</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 06:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 06:44</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 14:30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 14:30</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 04:57</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 04:57</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 11:41</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 11:41</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 05:49</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 05:49</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 10:53</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 10:53</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 03:42</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 03:42</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 10:21</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 10:21</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:32</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:32</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 09:27</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 09:27</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 12:56</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 12:56</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>02/07/2020 06:52</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>02/07/2020 06:52</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 08:10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 08:10</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 10:08</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 10:08</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 05:50</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 05:50</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:52</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:52</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 09:29</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 09:29</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 08:13</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 08:13</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 08:34</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 08:34</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:26</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:26</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 12:15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 12:15</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 07:50</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 07:50</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4135,16 +4135,16 @@
           <t>3131</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>20/07/2020 00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>dried out</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>P05_1</t>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 10:07</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 10:07</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:12</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:12</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 00:00</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 03:33</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 03:33</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 01:04</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 01:04</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 09:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 09:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 03:29</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 03:29</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 12:29</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 12:29</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 03:35</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 03:35</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 09:30</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 09:30</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 05:57</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 05:57</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 07:46</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 07:46</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 08:39</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 08:39</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 09:01</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 09:01</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 10:41</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 10:41</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 06:33</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 06:33</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 07:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 07:30</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 04:48</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 04:48</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 05:07</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 05:07</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 07:11</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 07:11</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 11:19</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 11:19</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 02:50</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 02:50</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 12:26</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 12:26</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 07:19</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 07:19</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 09:12</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 09:12</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 10:31</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 10:31</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 04:29</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 04:29</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 06:41</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 06:41</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 06:52</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 06:52</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 05:13</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 05:13</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 05:03</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 05:03</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 12:42</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 12:42</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 12:53</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 12:53</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 11:49</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 11:49</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 04:19</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 04:19</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 11:21</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 11:21</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 06:10</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 06:10</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 11:45</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 11:45</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 08:18</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 08:18</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 07:15</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 07:15</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:29</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:29</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:25</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:25</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:24</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 14:24</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 05:09</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 05:09</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 03:38</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 03:38</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 06:46</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 06:46</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 09:31</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 09:31</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:44</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:44</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 04:50</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 04:50</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 04:37</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 04:37</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:03</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:03</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 12:13</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 12:13</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 05:04</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 05:04</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 05:59</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 05:59</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 12:46</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 12:46</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 03:12</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 03:12</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 08:29</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 08:29</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 12:12</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 12:12</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 06:12</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 06:12</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 09:57</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 09:57</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 08:31</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 08:31</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 03:36</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 03:36</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 10:56</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 10:56</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:06</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:06</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 07:37</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 07:37</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:01</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:01</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 10:03</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 10:03</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 06:56</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 06:56</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:14</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:14</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:07</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:07</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 07:21</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 07:21</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 06:28</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 06:28</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 07:37</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 07:37</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 05:25</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 05:25</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:01</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:01</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 07:37</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 07:37</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 04:36</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 04:36</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:36</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:36</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 08:10</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 08:10</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:31</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:31</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 11:23</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 11:23</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 11:35</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 11:35</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:19</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:19</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 06:24</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 06:24</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 04:40</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 04:40</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 03:37</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 03:37</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 13:08</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 13:08</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:00</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 12:43</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 12:43</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:51</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:51</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 04:02</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 04:02</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 13:03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 13:03</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 11:05</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 11:05</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 08:54</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 08:54</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 08:11</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 08:11</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 11:02</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 11:02</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 05:27</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 05:27</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:41</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:41</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:13</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:13</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 09:46</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 09:46</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 10:07</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 10:07</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 05:31</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 05:31</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:57</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:57</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 05:47</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 05:47</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 08:16</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 08:16</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 04:31</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 04:31</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 07:59</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 07:59</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 09:15</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 09:15</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:00</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:38</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:38</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:36</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:36</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:58</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:58</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 05:21</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 05:21</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 04:53</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 04:53</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12744,7 +12744,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 06:41</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 06:41</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 02:38</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 02:38</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 08:58</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 08:58</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 02:57</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 02:57</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 08:07</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 08:07</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 02:12</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 02:12</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 05:17</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 05:17</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 07:01</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 07:01</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 10:11</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 10:11</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 04:44</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 04:44</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 10:55</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 10:55</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 06:36</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 06:36</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 06:41</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 06:41</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:16</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:16</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 12:06</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 12:06</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:57</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:57</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 10:07</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 10:07</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 03:34</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 03:34</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 07:40</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 07:40</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 12:41</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 12:41</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:49</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:49</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:13</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:13</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:12</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:12</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:53</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:53</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:52</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:52</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:41</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:41</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:52</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:52</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:31</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:31</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:05</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:05</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:01</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:01</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:35</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:35</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 05:03</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 05:03</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 05:57</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 05:57</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15221,7 +15221,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 10:33</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 10:33</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:21</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:21</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 09:59</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -15397,7 +15397,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 09:59</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 09:25</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 09:25</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 06:12</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 06:12</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 14:12</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 14:12</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 14:05</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 14:05</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 05:24</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 05:24</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 07:33</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 07:33</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 10:27</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 10:27</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 12:52</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 12:52</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:53</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:53</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:48</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:48</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 11:13</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 11:13</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 12:21</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 12:21</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 06:30</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 06:30</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 13:14</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 13:14</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 09:46</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 09:46</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 08:58</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 08:58</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 12:18</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 12:18</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 05:57</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16842,7 +16842,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 05:57</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 08:08</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 08:08</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:51</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:51</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:09</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:09</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:28</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -17197,7 +17197,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:28</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 05:34</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 05:34</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 07:49</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 07:49</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 08:04</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 08:04</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 08:33</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 08:33</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:42</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:42</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 00:00</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 00:00</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:31</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 10:31</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 10:28</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 10:28</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 05:42</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17907,7 +17907,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 05:42</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 07:11</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 07:11</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:35</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:35</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:14</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:14</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:18</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:18</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:05</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:05</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -18325,7 +18325,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 03:13</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 03:13</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 06:26</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 06:26</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 05:07</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18486,7 +18486,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 05:07</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 02:20</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 02:20</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:07</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 08:07</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:35</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:35</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 07:28</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 07:28</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 04:33</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 04:33</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 04:15</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 04:15</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 06:13</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 06:13</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 08:16</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 08:16</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 10:22</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19133,7 +19133,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 10:22</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 08:07</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 08:07</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -19254,7 +19254,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 04:55</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 04:55</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:02</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 07:02</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 06:55</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -19425,7 +19425,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 06:55</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 03:46</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 03:46</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 10:40</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 10:40</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 15:55</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 15:55</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 12:18</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 12:18</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 07:08</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 07:08</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19853,7 +19853,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:39</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:39</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:37</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:37</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 06:25</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 06:25</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:59</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:59</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 02:50</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 02:50</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:27</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:27</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -20291,12 +20291,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>06/12/2020 00:00</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -20316,7 +20311,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 00:00</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -20364,7 +20359,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 04:39</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20389,7 +20384,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 04:39</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -20437,7 +20432,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:05</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20462,7 +20457,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:05</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -20510,7 +20505,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:58</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20535,7 +20530,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 03:58</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -20583,7 +20578,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 02:13</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -20603,7 +20598,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 02:13</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -20651,7 +20646,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:47</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -20671,7 +20666,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:47</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -20719,7 +20714,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:54</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20744,7 +20739,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:54</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20792,7 +20787,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 00:00</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20817,7 +20812,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 00:00</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -20865,7 +20860,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:10</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20890,7 +20885,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:10</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -20938,7 +20933,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:25</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -20958,7 +20953,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:25</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -21006,7 +21001,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 08:07</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -21026,7 +21021,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 08:07</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -21074,7 +21069,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:33</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21099,7 +21094,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:33</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -21147,7 +21142,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 03:52</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21172,7 +21167,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 03:52</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -21220,7 +21215,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:38</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21245,7 +21240,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:38</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21293,7 +21288,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:50</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -21313,7 +21308,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:50</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -21361,7 +21356,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:25</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21386,7 +21381,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:25</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -21434,7 +21429,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:55</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21459,7 +21454,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:55</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -21507,7 +21502,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:34</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -21527,7 +21522,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:34</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -21575,7 +21570,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 08:03</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -21595,7 +21590,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 08:03</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -21643,7 +21638,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 03:24</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -21663,7 +21658,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 03:24</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -21711,7 +21706,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:58</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21736,7 +21731,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:58</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -21784,7 +21779,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:40</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21809,7 +21804,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:40</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -21857,7 +21852,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 03:10</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -21877,7 +21872,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 03:10</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -21925,7 +21920,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 08:32</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21950,7 +21945,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 08:32</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -21998,7 +21993,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:28</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22023,7 +22018,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:28</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -22071,7 +22066,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:05</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22096,7 +22091,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:05</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -22144,7 +22139,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:46</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22169,7 +22164,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:46</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -22217,7 +22212,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:10</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22242,7 +22237,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 06:10</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -22290,7 +22285,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:34</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22315,7 +22310,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:34</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -22363,7 +22358,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:53</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22388,7 +22383,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:53</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -22436,7 +22431,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 10:21</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22461,7 +22456,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 10:21</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -22509,7 +22504,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:57</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22534,7 +22529,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 05:57</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -22582,7 +22577,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:21</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22607,7 +22602,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:21</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -22655,7 +22650,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 02:38</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -22675,7 +22670,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 02:38</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -22723,7 +22718,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:36</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22748,7 +22743,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:36</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -22796,7 +22791,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 05:42</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22821,7 +22816,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 05:42</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -22869,7 +22864,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:51</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22894,7 +22889,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:51</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -22942,7 +22937,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 08:07</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -22962,7 +22957,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 08:07</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -23010,7 +23005,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:42</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -23030,7 +23025,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:42</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -23078,7 +23073,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:18</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23103,7 +23098,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:18</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -23151,7 +23146,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 07:21</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -23171,7 +23166,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 07:21</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -23219,7 +23214,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 09:22</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23244,7 +23239,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 09:22</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -23292,7 +23287,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 03:18</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23317,7 +23312,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 03:18</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -23365,7 +23360,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:06</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23390,7 +23385,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 10:06</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -23438,7 +23433,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:05</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23463,7 +23458,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:05</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -23511,7 +23506,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 09:30</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -23531,7 +23526,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 09:30</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -23577,6 +23572,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>14/11/2020 00:00</t>
+        </is>
+      </c>
       <c r="I324" t="inlineStr">
         <is>
           <t>dried out</t>
@@ -23595,6 +23595,11 @@
       <c r="L324" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>14/11/2020 00:00</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -23642,7 +23647,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 04:07</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -23662,7 +23667,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 04:07</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -23710,7 +23715,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:37</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -23730,7 +23735,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:37</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -23778,7 +23783,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 08:47</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -23798,7 +23803,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 08:47</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -23846,7 +23851,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:46</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23871,7 +23876,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:46</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -23919,7 +23924,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 03:25</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23944,7 +23949,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 03:25</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -23992,7 +23997,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 06:40</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -24012,7 +24017,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 06:40</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -24060,7 +24065,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 06:00</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -24080,7 +24085,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 06:00</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -24128,7 +24133,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:20</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24153,7 +24158,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:20</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -24201,7 +24206,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:04</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -24221,7 +24226,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 04:04</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -24269,7 +24274,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:28</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -24289,7 +24294,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:28</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -24337,7 +24342,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 07:14</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -24357,7 +24362,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 07:14</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -24405,7 +24410,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 06:20</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -24425,7 +24430,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 06:20</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -24473,7 +24478,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 03:54</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -24493,7 +24498,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 03:54</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -24541,7 +24546,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:30</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24566,7 +24571,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:30</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -24614,7 +24619,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:56</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -24634,7 +24639,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:56</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -24682,7 +24687,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:32</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -24702,7 +24707,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:32</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -24750,7 +24755,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 06:46</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24775,7 +24780,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 06:46</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -24823,7 +24828,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:03</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24848,7 +24853,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 04:03</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -24896,7 +24901,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 09:20</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -24916,7 +24921,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 09:20</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -24964,7 +24969,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:30</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24989,7 +24994,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:30</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -25037,7 +25042,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 07:44</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -25057,7 +25062,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 07:44</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -25105,7 +25110,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:04</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -25125,7 +25130,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:04</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -25173,7 +25178,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:37</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -25193,7 +25198,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:37</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -25241,7 +25246,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 04:28</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25266,7 +25271,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 04:28</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -25314,7 +25319,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>06/05/2022 03:47</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -25334,7 +25339,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>06/05/2022 03:47</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -25382,7 +25387,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 04:45</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -25402,7 +25407,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 04:45</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -25450,7 +25455,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 10:30</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -25470,7 +25475,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 10:30</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -25518,7 +25523,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 04:05</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25543,7 +25548,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 04:05</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -25591,7 +25596,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:22</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -25611,7 +25616,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:22</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -25659,7 +25664,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:08</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -25679,7 +25684,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:08</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -25727,7 +25732,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 08:05</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -25747,7 +25752,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 08:05</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -25795,7 +25800,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 04:30</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -25815,7 +25820,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 04:30</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -25863,7 +25868,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 08:47</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -25883,7 +25888,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 08:47</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -25931,7 +25936,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 08:50</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25956,7 +25961,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 08:50</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -26004,7 +26009,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:19</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -26024,7 +26029,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:19</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -26072,7 +26077,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 03:43</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -26092,7 +26097,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 03:43</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -26138,6 +26143,11 @@
           <t>3130</t>
         </is>
       </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I361" t="inlineStr">
         <is>
           <t>udløb. bassin 36.3 afløb ø 300 traneholmsrenden</t>
@@ -26156,6 +26166,11 @@
       <c r="L361" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -26203,7 +26218,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:01</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -26223,7 +26238,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:01</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -26271,7 +26286,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 05:55</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -26291,7 +26306,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 05:55</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -26339,7 +26354,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 03:50</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -26359,7 +26374,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 03:50</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -26407,7 +26422,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:32</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -26427,7 +26442,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:32</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -26475,7 +26490,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:24</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26500,7 +26515,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:24</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -26548,7 +26563,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:13</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -26568,7 +26583,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:13</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -26616,7 +26631,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:44</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -26636,7 +26651,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:44</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -26684,7 +26699,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 09:47</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -26704,7 +26719,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 09:47</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -26752,7 +26767,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:28</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26777,7 +26792,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:28</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -26825,7 +26840,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:54</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -26845,7 +26860,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:54</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -26893,7 +26908,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:09</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -26913,7 +26928,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:09</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -26961,7 +26976,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:00</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -26981,7 +26996,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:00</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -27029,7 +27044,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 10:30</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -27049,7 +27064,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 10:30</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -27097,7 +27112,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:37</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -27117,7 +27132,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:37</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -27165,7 +27180,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:13</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -27185,7 +27200,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:13</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
@@ -27233,7 +27248,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:25</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -27253,7 +27268,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:25</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -27301,7 +27316,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:55</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -27321,7 +27336,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:55</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -27369,7 +27384,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 05:26</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -27389,7 +27404,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 05:26</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27437,7 +27452,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 10:18</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -27457,7 +27472,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 10:18</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -27505,7 +27520,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 09:00</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -27525,7 +27540,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 09:00</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
@@ -27573,7 +27588,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:27</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -27593,7 +27608,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:27</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -27641,7 +27656,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 03:56</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -27661,7 +27676,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 03:56</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -27709,7 +27724,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 05:16</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -27729,7 +27744,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 05:16</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27777,7 +27792,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:53</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -27797,7 +27812,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:53</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -27845,7 +27860,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:48</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -27865,7 +27880,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:48</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27913,7 +27928,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:56</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -27933,7 +27948,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:56</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -27981,7 +27996,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 06:30</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -28001,7 +28016,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 06:30</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -28049,7 +28064,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:14</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28074,7 +28089,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:14</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -28120,6 +28135,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>22/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I390" t="inlineStr">
         <is>
           <t>dried out rainwater_city</t>
@@ -28138,6 +28158,11 @@
       <c r="L390" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>22/04/2022 00:00</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -28185,7 +28210,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 10:03</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -28205,7 +28230,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 10:03</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
@@ -28253,7 +28278,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 06:39</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -28273,7 +28298,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 06:39</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -28321,7 +28346,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 07:43</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -28341,7 +28366,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 07:43</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -28389,7 +28414,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:44</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28414,7 +28439,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:44</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -28462,7 +28487,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 05:07</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -28482,7 +28507,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 05:07</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -28530,7 +28555,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:23</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28555,7 +28580,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:23</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -28603,7 +28628,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 06:03</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -28623,7 +28648,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 06:03</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -28671,7 +28696,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 06:23</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -28691,7 +28716,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 06:23</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -28739,7 +28764,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:25</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28764,7 +28789,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:25</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -28812,7 +28837,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 03:18</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28837,7 +28862,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 03:18</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -28885,7 +28910,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 05:09</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -28905,7 +28930,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 05:09</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
@@ -28953,7 +28978,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 04:43</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -28973,7 +28998,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 04:43</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
@@ -29021,7 +29046,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 07:19</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -29041,7 +29066,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 07:19</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -29089,7 +29114,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 09:08</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -29109,7 +29134,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 09:08</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -29157,7 +29182,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 06:29</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -29177,7 +29202,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 06:29</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -29225,7 +29250,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:44</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -29245,7 +29270,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:44</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -29293,7 +29318,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:19</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -29313,7 +29338,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:19</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -29361,7 +29386,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 06:13</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -29381,7 +29406,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 06:13</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -29429,7 +29454,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 06:15</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -29449,7 +29474,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 06:15</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -29497,7 +29522,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 10:25</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -29517,7 +29542,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 10:25</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -29565,7 +29590,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 03:35</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -29585,7 +29610,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 03:35</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -29633,7 +29658,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 04:45</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -29653,7 +29678,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 04:45</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
@@ -29701,7 +29726,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 04:42</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -29721,7 +29746,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 04:42</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -29769,7 +29794,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 09:12</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -29789,7 +29814,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 09:12</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
@@ -29837,7 +29862,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 04:50</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -29862,7 +29887,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 04:50</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -29910,7 +29935,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:03</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -29930,7 +29955,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:03</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -29978,7 +30003,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 02:46</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -29998,7 +30023,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 02:46</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -30046,7 +30071,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 04:03</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -30066,7 +30091,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 04:03</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -30114,7 +30139,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 07:04</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -30134,7 +30159,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 07:04</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -30182,7 +30207,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 09:41</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -30202,7 +30227,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 09:41</t>
         </is>
       </c>
       <c r="N420" t="inlineStr">
@@ -30250,7 +30275,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 03:10</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30275,7 +30300,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 03:10</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -30323,7 +30348,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 09:06</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -30343,7 +30368,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 09:06</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -30391,7 +30416,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 03:00</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -30411,7 +30436,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 03:00</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -30457,6 +30482,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>05/05/2022 00:00</t>
+        </is>
+      </c>
       <c r="I424" t="inlineStr">
         <is>
           <t>dried out</t>
@@ -30475,6 +30505,11 @@
       <c r="L424" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>05/05/2022 00:00</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -30522,7 +30557,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:39</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -30542,7 +30577,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:39</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -30590,7 +30625,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 05:11</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -30610,7 +30645,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 05:11</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -30658,7 +30693,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 07:58</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -30678,7 +30713,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 07:58</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -30724,6 +30759,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I428" t="inlineStr">
         <is>
           <t>dried out rainwater_city</t>
@@ -30742,6 +30782,11 @@
       <c r="L428" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -30789,7 +30834,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 07:09</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -30809,7 +30854,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 07:09</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -30857,7 +30902,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 10:34</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -30877,7 +30922,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 10:34</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -30925,7 +30970,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 09:19</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -30945,7 +30990,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 09:19</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -30993,7 +31038,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 08:04</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -31013,7 +31058,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 08:04</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -31061,7 +31106,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 08:44</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -31081,7 +31126,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 08:44</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -31127,6 +31172,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>25/03/2022 00:00</t>
+        </is>
+      </c>
       <c r="I434" t="inlineStr">
         <is>
           <t>dried out (new) rainwater_city</t>
@@ -31145,6 +31195,11 @@
       <c r="L434" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>25/03/2022 00:00</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -31192,7 +31247,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 06:00</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -31212,7 +31267,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 06:00</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -31260,7 +31315,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 04:14</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -31280,7 +31335,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 04:14</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -31328,7 +31383,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 09:43</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -31348,7 +31403,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 09:43</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
@@ -31396,7 +31451,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 06:58</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31421,7 +31476,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 06:58</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
@@ -31469,7 +31524,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 06:46</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -31489,7 +31544,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 06:46</t>
         </is>
       </c>
       <c r="N439" t="inlineStr">
@@ -31537,7 +31592,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 03:57</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -31557,7 +31612,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 03:57</t>
         </is>
       </c>
       <c r="N440" t="inlineStr">
@@ -31605,7 +31660,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 05:42</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -31625,7 +31680,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 05:42</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -31673,7 +31728,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 11:27</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -31693,7 +31748,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 11:27</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
@@ -31741,7 +31796,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 10:24</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -31761,7 +31816,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 10:24</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -31809,7 +31864,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 07:48</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -31829,7 +31884,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>22/03/2022 07:48</t>
         </is>
       </c>
       <c r="N444" t="inlineStr">
@@ -31875,6 +31930,11 @@
           <t>3131</t>
         </is>
       </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>25/03/2022 00:00</t>
+        </is>
+      </c>
       <c r="I445" t="inlineStr">
         <is>
           <t>dried out, rainwater_city</t>
@@ -31893,6 +31953,11 @@
       <c r="L445" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>25/03/2022 00:00</t>
         </is>
       </c>
       <c r="N445" t="inlineStr">
@@ -31940,7 +32005,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 06:47</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -31960,7 +32025,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 06:47</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -32008,7 +32073,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 05:01</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -32028,7 +32093,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 05:01</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
@@ -32076,7 +32141,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 10:47</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -32096,7 +32161,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 10:47</t>
         </is>
       </c>
       <c r="N448" t="inlineStr">
@@ -32144,7 +32209,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 04:12</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -32164,7 +32229,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 04:12</t>
         </is>
       </c>
       <c r="N449" t="inlineStr">
@@ -32212,7 +32277,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 05:45</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32237,7 +32302,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 05:45</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -32285,7 +32350,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 08:39</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -32305,7 +32370,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 08:39</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -32353,7 +32418,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 09:09</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -32373,7 +32438,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 09:09</t>
         </is>
       </c>
       <c r="N452" t="inlineStr">
@@ -32421,7 +32486,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 06:41</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -32441,7 +32506,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 06:41</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -32489,7 +32554,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 11:12</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -32514,7 +32579,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 11:12</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">
@@ -32562,7 +32627,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 11:29</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -32582,7 +32647,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 11:29</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -32630,7 +32695,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>23/05/2022 03:00</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -32650,7 +32715,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>23/05/2022 03:00</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -32698,7 +32763,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>23/05/2022 03:05</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -32718,7 +32783,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>23/05/2022 03:05</t>
         </is>
       </c>
       <c r="N457" t="inlineStr">

--- a/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22/06/2021 06:23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22/06/2021 06:23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22/06/2021 08:19</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22/06/2021 08:19</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22/06/2021 08:37</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22/06/2021 08:37</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23/06/2021 06:12</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/06/2021 06:12</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15/06/2021 06:46</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/06/2021 06:46</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15/06/2021 06:17</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/06/2021 06:17</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23/06/2021 04:56</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23/06/2021 04:56</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23/06/2021 07:49</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23/06/2021 07:49</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23/06/2021 08:43</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23/06/2021 08:43</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>04/05/2022 09:15</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>04/05/2022 09:15</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>06/05/2022 01:59</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/05/2022 01:59</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>28/04/2022 05:19</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>28/04/2022 05:19</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21/04/2022 06:54</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21/04/2022 06:54</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>05/08/2020 06:09</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2020 06:09</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08/07/2020 06:01</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>08/07/2020 06:01</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14/07/2020 08:24</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14/07/2020 08:24</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>03/08/2020 10:11</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/08/2020 10:11</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23/07/2020 13:07</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/07/2020 13:07</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23/07/2020 08:51</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/07/2020 08:51</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15/07/2020 03:18</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/07/2020 03:18</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14/07/2020 08:09</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14/07/2020 08:09</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08/07/2020 11:54</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>08/07/2020 11:54</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08/07/2020 07:31</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>08/07/2020 07:31</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08/07/2020 12:24</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>08/07/2020 12:24</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08/07/2020 10:57</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>08/07/2020 10:57</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08/07/2020 08:12</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>08/07/2020 08:12</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>07/07/2020 04:02</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>07/07/2020 04:02</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16/07/2020 03:08</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/07/2020 03:08</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>07/07/2020 08:36</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>07/07/2020 08:36</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08/07/2020 05:22</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/07/2020 05:22</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>07/07/2020 06:44</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>07/07/2020 06:44</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08/07/2020 14:30</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/07/2020 14:30</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08/07/2020 04:57</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/07/2020 04:57</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>07/07/2020 11:41</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/07/2020 11:41</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>07/07/2020 05:49</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/07/2020 05:49</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>07/07/2020 10:53</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/07/2020 10:53</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15/07/2020 03:42</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15/07/2020 03:42</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>07/07/2020 10:21</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/07/2020 10:21</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21/07/2020 02:32</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/07/2020 02:32</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>06/07/2020 09:27</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/07/2020 09:27</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08/07/2020 12:56</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>08/07/2020 12:56</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>02/07/2020 06:52</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/07/2020 06:52</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06/07/2020 08:10</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>06/07/2020 08:10</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>06/07/2020 10:08</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>06/07/2020 10:08</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>06/07/2020 05:50</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>06/07/2020 05:50</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12/08/2020 09:52</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12/08/2020 09:52</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>21/07/2020 09:29</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/07/2020 09:29</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>04/08/2020 08:13</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>04/08/2020 08:13</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>04/08/2020 08:34</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/08/2020 08:34</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>21/07/2020 10:26</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>21/07/2020 10:26</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21/07/2020 12:15</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>21/07/2020 12:15</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>22/07/2020 07:50</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>22/07/2020 07:50</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>20/07/2020 00:00</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>20/07/2020 00:00</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>05/08/2020 10:07</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/08/2020 10:07</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>21/07/2020 02:12</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>21/07/2020 02:12</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>22/07/2020 00:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>22/07/2020 00:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>21/07/2020 03:33</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/07/2020 03:33</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>21/07/2020 01:04</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/07/2020 01:04</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>21/07/2020 09:00</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/07/2020 09:00</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>20/07/2020 03:29</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>20/07/2020 03:29</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>21/07/2020 12:29</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/07/2020 12:29</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>16/07/2020 03:35</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/07/2020 03:35</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>04/08/2020 09:30</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/08/2020 09:30</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>21/07/2020 05:57</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/07/2020 05:57</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>21/07/2020 07:46</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/07/2020 07:46</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>05/08/2020 08:39</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>05/08/2020 08:39</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>04/08/2020 09:01</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>04/08/2020 09:01</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>16/07/2020 10:41</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/07/2020 10:41</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>22/07/2020 06:33</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>22/07/2020 06:33</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16/07/2020 07:30</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>16/07/2020 07:30</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>16/07/2020 04:48</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>16/07/2020 04:48</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>21/07/2020 05:07</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/07/2020 05:07</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17/07/2020 07:11</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/07/2020 07:11</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>21/07/2020 11:19</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>21/07/2020 11:19</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>23/07/2020 02:50</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/07/2020 02:50</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16/07/2020 12:26</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/07/2020 12:26</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>22/07/2020 07:19</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/07/2020 07:19</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>17/07/2020 09:12</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>17/07/2020 09:12</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>17/07/2020 10:31</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>17/07/2020 10:31</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17/07/2020 04:29</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17/07/2020 04:29</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>21/07/2020 06:41</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/07/2020 06:41</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>17/07/2020 06:52</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>17/07/2020 06:52</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>23/07/2020 05:13</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>23/07/2020 05:13</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>17/07/2020 05:03</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>17/07/2020 05:03</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>17/07/2020 12:42</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>17/07/2020 12:42</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17/07/2020 12:53</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>17/07/2020 12:53</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>17/07/2020 11:49</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>17/07/2020 11:49</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>15/07/2020 04:19</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>15/07/2020 04:19</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>17/07/2020 11:21</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>17/07/2020 11:21</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>23/07/2020 06:10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/07/2020 06:10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>15/07/2020 11:45</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>15/07/2020 11:45</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>15/07/2020 08:18</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>15/07/2020 08:18</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>15/07/2020 07:15</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>15/07/2020 07:15</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>06/07/2020 14:29</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>06/07/2020 14:29</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>06/07/2020 14:25</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>06/07/2020 14:25</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>06/07/2020 14:24</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>06/07/2020 14:24</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>06/07/2020 05:09</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/07/2020 05:09</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>06/07/2020 03:38</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/07/2020 03:38</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>06/07/2020 06:46</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/07/2020 06:46</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>10/08/2020 09:31</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10/08/2020 09:31</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>30/07/2020 09:44</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/07/2020 09:44</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>06/08/2020 04:50</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>06/08/2020 04:50</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>06/08/2020 04:37</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>06/08/2020 04:37</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>10/08/2020 11:03</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>10/08/2020 11:03</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>05/08/2020 12:13</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/08/2020 12:13</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>06/08/2020 05:04</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>06/08/2020 05:04</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>28/07/2020 05:59</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>28/07/2020 05:59</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>10/08/2020 12:46</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/08/2020 12:46</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>11/08/2020 03:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>11/08/2020 03:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>10/08/2020 08:29</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10/08/2020 08:29</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>10/08/2020 12:12</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10/08/2020 12:12</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>06/08/2020 06:12</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>06/08/2020 06:12</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>29/07/2020 09:57</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/07/2020 09:57</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>30/07/2020 08:31</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2020 08:31</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>30/07/2020 03:36</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2020 03:36</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>29/07/2020 10:56</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>29/07/2020 10:56</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>30/07/2020 05:06</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2020 05:06</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>06/08/2020 07:37</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>06/08/2020 07:37</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>30/07/2020 09:01</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>30/07/2020 09:01</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>30/07/2020 10:03</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>30/07/2020 10:03</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>06/08/2020 06:56</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>06/08/2020 06:56</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>28/07/2020 09:14</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>28/07/2020 09:14</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>27/07/2020 10:07</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/07/2020 10:07</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>29/07/2020 07:21</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>29/07/2020 07:21</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>28/07/2020 06:28</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>28/07/2020 06:28</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>29/07/2020 07:37</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>29/07/2020 07:37</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>29/07/2020 05:25</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>29/07/2020 05:25</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>11/08/2020 04:01</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>11/08/2020 04:01</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>28/07/2020 07:37</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>28/07/2020 07:37</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>29/07/2020 04:36</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>29/07/2020 04:36</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>28/07/2020 09:36</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/07/2020 09:36</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>28/07/2020 08:10</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/07/2020 08:10</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>30/07/2020 09:31</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>30/07/2020 09:31</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>29/07/2020 11:23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/07/2020 11:23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>27/07/2020 11:35</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>27/07/2020 11:35</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>10/08/2020 11:19</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>10/08/2020 11:19</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>29/07/2020 06:24</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/07/2020 06:24</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>28/07/2020 04:40</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>28/07/2020 04:40</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>10/08/2020 03:37</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>10/08/2020 03:37</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>28/07/2020 13:08</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>28/07/2020 13:08</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>27/07/2020 07:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>27/07/2020 07:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>28/07/2020 12:43</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>28/07/2020 12:43</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>27/07/2020 07:51</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>27/07/2020 07:51</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>28/07/2020 04:02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>28/07/2020 04:02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>10/08/2020 13:03</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>10/08/2020 13:03</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>05/08/2020 11:05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>05/08/2020 11:05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>10/08/2020 08:54</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>10/08/2020 08:54</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>30/07/2020 08:11</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>30/07/2020 08:11</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>28/07/2020 11:02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>28/07/2020 11:02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>27/07/2020 05:27</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>27/07/2020 05:27</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>27/09/2020 04:41</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>27/09/2020 04:41</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>27/09/2020 07:13</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>27/09/2020 07:13</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>26/09/2020 09:46</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>26/09/2020 09:46</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>26/09/2020 10:07</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>26/09/2020 10:07</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>27/09/2020 05:31</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>27/09/2020 05:31</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>27/09/2020 07:57</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>27/09/2020 07:57</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>27/09/2020 05:47</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>27/09/2020 05:47</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>27/09/2020 08:16</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>27/09/2020 08:16</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>26/09/2020 04:31</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>26/09/2020 04:31</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>26/09/2020 07:59</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>26/09/2020 07:59</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>26/09/2020 09:15</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>26/09/2020 09:15</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>26/09/2020 03:00</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>26/09/2020 03:00</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>27/09/2020 04:38</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>27/09/2020 04:38</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>27/09/2020 06:36</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>27/09/2020 06:36</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>26/09/2020 03:58</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>26/09/2020 03:58</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>26/09/2020 05:21</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>26/09/2020 05:21</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>26/09/2020 04:53</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>26/09/2020 04:53</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12744,7 +12744,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>26/09/2020 06:41</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>26/09/2020 06:41</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>04/05/2022 02:38</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>04/05/2022 02:38</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>19/09/2020 08:58</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>19/09/2020 08:58</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>20/09/2020 02:57</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/09/2020 02:57</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>19/09/2020 08:07</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>19/09/2020 08:07</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>20/09/2020 02:12</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/09/2020 02:12</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>20/09/2020 05:17</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>20/09/2020 05:17</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>20/09/2020 07:01</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>20/09/2020 07:01</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>19/09/2020 10:11</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>19/09/2020 10:11</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>20/09/2020 04:44</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>20/09/2020 04:44</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>19/09/2020 10:55</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>19/09/2020 10:55</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>20/09/2020 06:36</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>20/09/2020 06:36</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>04/08/2020 06:41</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>04/08/2020 06:41</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>05/08/2020 09:16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>05/08/2020 09:16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>04/08/2020 12:06</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>04/08/2020 12:06</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>03/08/2020 11:57</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>03/08/2020 11:57</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>14/08/2020 10:07</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>14/08/2020 10:07</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>03/08/2020 03:34</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>03/08/2020 03:34</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>13/08/2020 07:40</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>13/08/2020 07:40</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>03/08/2020 12:41</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>03/08/2020 12:41</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>04/08/2020 03:49</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>04/08/2020 03:49</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>03/08/2020 11:13</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>03/08/2020 11:13</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>04/08/2020 10:12</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>04/08/2020 10:12</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>05/08/2020 09:53</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>05/08/2020 09:53</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>04/08/2020 03:52</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>04/08/2020 03:52</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>05/08/2020 09:41</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>05/08/2020 09:41</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>03/08/2020 06:52</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>03/08/2020 06:52</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>05/08/2020 06:31</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>05/08/2020 06:31</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>03/08/2020 09:05</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>03/08/2020 09:05</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>14/08/2020 07:01</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>14/08/2020 07:01</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>03/08/2020 09:35</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2020 09:35</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>14/08/2020 05:03</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>14/08/2020 05:03</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>05/08/2020 05:57</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>05/08/2020 05:57</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15221,7 +15221,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>03/08/2020 10:33</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2020 10:33</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>11/08/2020 04:21</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>11/08/2020 04:21</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>07/08/2020 09:59</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -15397,7 +15397,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>07/08/2020 09:59</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>13/08/2020 09:25</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>13/08/2020 09:25</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>11/08/2020 06:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>11/08/2020 06:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>11/08/2020 14:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>11/08/2020 14:12</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>11/08/2020 14:05</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>11/08/2020 14:05</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>12/08/2020 05:24</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>12/08/2020 05:24</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>12/08/2020 07:33</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>12/08/2020 07:33</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>07/08/2020 10:27</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>07/08/2020 10:27</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>12/08/2020 12:52</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>12/08/2020 12:52</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>12/08/2020 09:53</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>12/08/2020 09:53</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>04/08/2020 04:48</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>04/08/2020 04:48</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>11/08/2020 11:13</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>11/08/2020 11:13</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>12/08/2020 12:21</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2020 12:21</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>11/08/2020 06:30</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>11/08/2020 06:30</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>13/08/2020 13:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>13/08/2020 13:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>11/08/2020 09:46</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>11/08/2020 09:46</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>07/08/2020 08:58</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>07/08/2020 08:58</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>11/08/2020 12:18</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>11/08/2020 12:18</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>14/08/2020 05:57</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16842,7 +16842,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>14/08/2020 05:57</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>12/08/2020 08:08</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>12/08/2020 08:08</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>18/09/2020 08:51</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>18/09/2020 08:51</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>04/08/2020 10:09</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>04/08/2020 10:09</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>12/08/2020 04:28</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -17197,7 +17197,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>12/08/2020 04:28</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>11/08/2020 05:34</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>11/08/2020 05:34</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>04/08/2020 07:49</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>04/08/2020 07:49</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>07/08/2020 08:04</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>07/08/2020 08:04</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>11/08/2020 08:33</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>11/08/2020 08:33</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>12/08/2020 04:42</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>12/08/2020 04:42</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>14/08/2020 00:00</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>14/08/2020 00:00</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>04/08/2020 10:31</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>04/08/2020 10:31</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>13/08/2020 10:28</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>13/08/2020 10:28</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>09/08/2020 05:42</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17907,7 +17907,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>09/08/2020 05:42</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>09/08/2020 07:11</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>09/08/2020 07:11</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>11/08/2020 10:35</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>11/08/2020 10:35</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>13/08/2020 12:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>13/08/2020 12:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>18/09/2020 08:18</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>18/09/2020 08:18</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>18/09/2020 07:05</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>18/09/2020 07:05</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -18325,7 +18325,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>19/09/2020 03:13</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>19/09/2020 03:13</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>19/09/2020 06:26</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>19/09/2020 06:26</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>18/09/2020 05:07</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18486,7 +18486,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>18/09/2020 05:07</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>19/09/2020 02:20</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>19/09/2020 02:20</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>18/09/2020 08:07</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>18/09/2020 08:07</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>18/09/2020 07:35</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>18/09/2020 07:35</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>19/09/2020 07:28</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>19/09/2020 07:28</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>19/09/2020 04:33</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>19/09/2020 04:33</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>19/09/2020 04:15</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>19/09/2020 04:15</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>18/09/2020 06:13</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>18/09/2020 06:13</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>14/08/2020 08:16</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>14/08/2020 08:16</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>18/09/2020 10:22</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19133,7 +19133,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>18/09/2020 10:22</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>13/08/2020 08:07</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>13/08/2020 08:07</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -19254,7 +19254,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>27/07/2020 04:55</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>27/07/2020 04:55</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>27/07/2020 07:02</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>27/07/2020 07:02</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>10/08/2020 06:55</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -19425,7 +19425,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>10/08/2020 06:55</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>11/08/2020 03:46</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>11/08/2020 03:46</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>28/07/2020 10:40</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>28/07/2020 10:40</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>04/08/2020 15:55</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>04/08/2020 15:55</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>28/07/2020 12:18</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>28/07/2020 12:18</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>10/08/2020 07:08</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>10/08/2020 07:08</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19853,7 +19853,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>27/07/2020 10:39</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>27/07/2020 10:39</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>30/07/2020 05:37</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>30/07/2020 05:37</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>16/05/2022 06:25</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>16/05/2022 06:25</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>22/11/2020 03:59</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>22/11/2020 03:59</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>22/11/2020 02:50</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/11/2020 02:50</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>22/11/2020 03:27</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/11/2020 03:27</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>06/12/2020 00:00</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>06/12/2020 00:00</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>06/12/2020 04:39</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20384,7 +20384,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>06/12/2020 04:39</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>22/11/2020 03:05</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>22/11/2020 03:05</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>22/11/2020 03:58</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>22/11/2020 03:58</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>22/11/2020 02:13</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -20598,7 +20598,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>22/11/2020 02:13</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>05/12/2020 07:47</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -20666,7 +20666,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>05/12/2020 07:47</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>21/11/2020 07:54</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/11/2020 07:54</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>21/11/2020 00:00</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20812,7 +20812,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>21/11/2020 00:00</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>05/12/2020 05:10</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>05/12/2020 05:10</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -20933,7 +20933,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>21/11/2020 07:25</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -20953,7 +20953,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>21/11/2020 07:25</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>06/12/2020 08:07</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -21021,7 +21021,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>06/12/2020 08:07</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>05/12/2020 05:33</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21094,7 +21094,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>05/12/2020 05:33</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>06/12/2020 03:52</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>06/12/2020 03:52</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>22/11/2020 04:38</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>22/11/2020 04:38</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>06/12/2020 07:50</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>06/12/2020 07:50</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>22/11/2020 04:25</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21381,7 +21381,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>22/11/2020 04:25</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -21429,7 +21429,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>22/11/2020 04:55</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21454,7 +21454,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>22/11/2020 04:55</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -21502,7 +21502,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>06/12/2020 07:34</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -21522,7 +21522,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>06/12/2020 07:34</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>05/12/2020 08:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -21590,7 +21590,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>05/12/2020 08:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -21638,7 +21638,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>05/12/2020 03:24</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>05/12/2020 03:24</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>05/12/2020 04:58</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>05/12/2020 04:58</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>21/11/2020 02:40</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21804,7 +21804,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>21/11/2020 02:40</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>05/12/2020 03:10</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>05/12/2020 03:10</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>21/11/2020 08:32</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>21/11/2020 08:32</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -21993,7 +21993,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>15/11/2020 06:28</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>15/11/2020 06:28</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>20/11/2020 08:05</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>20/11/2020 08:05</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>15/11/2020 06:46</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>15/11/2020 06:46</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>15/11/2020 06:10</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>15/11/2020 06:10</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -22285,7 +22285,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>20/11/2020 08:34</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22310,7 +22310,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>20/11/2020 08:34</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>14/11/2020 09:53</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22383,7 +22383,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>14/11/2020 09:53</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -22431,7 +22431,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>20/11/2020 10:21</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>20/11/2020 10:21</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>05/12/2020 05:57</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22529,7 +22529,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>05/12/2020 05:57</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>05/12/2020 04:21</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>05/12/2020 04:21</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>05/12/2020 02:38</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>05/12/2020 02:38</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>14/11/2020 10:36</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>14/11/2020 10:36</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>15/11/2020 05:42</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>15/11/2020 05:42</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -22864,7 +22864,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>14/11/2020 10:51</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>14/11/2020 10:51</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>14/11/2020 08:07</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>14/11/2020 08:07</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -23005,7 +23005,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>14/11/2020 05:42</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -23025,7 +23025,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>14/11/2020 05:42</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -23073,7 +23073,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>15/11/2020 04:18</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>15/11/2020 04:18</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>20/11/2020 07:21</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -23166,7 +23166,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>20/11/2020 07:21</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -23214,7 +23214,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>20/11/2020 09:22</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>20/11/2020 09:22</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>15/11/2020 03:18</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23312,7 +23312,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>15/11/2020 03:18</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>14/11/2020 10:06</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>14/11/2020 10:06</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>14/11/2020 09:05</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>14/11/2020 09:05</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -23506,7 +23506,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>13/11/2020 09:30</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>13/11/2020 09:30</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>14/11/2020 00:00</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23599,7 +23599,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>14/11/2020 00:00</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>14/11/2020 04:07</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -23667,7 +23667,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>14/11/2020 04:07</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -23715,7 +23715,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>20/11/2020 05:37</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>20/11/2020 05:37</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -23783,7 +23783,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>13/11/2020 08:47</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>13/11/2020 08:47</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>15/11/2020 04:46</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>15/11/2020 04:46</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -23924,7 +23924,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>14/11/2020 03:25</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23949,7 +23949,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>14/11/2020 03:25</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -23997,7 +23997,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>20/11/2020 06:40</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>20/11/2020 06:40</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>13/11/2020 06:00</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>13/11/2020 06:00</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>05/12/2020 07:20</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>05/12/2020 07:20</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>05/12/2020 04:04</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -24226,7 +24226,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>05/12/2020 04:04</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -24274,7 +24274,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>24/06/2021 04:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>24/06/2021 04:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -24342,7 +24342,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>14/11/2020 07:14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>14/11/2020 07:14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>14/11/2020 06:20</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -24430,7 +24430,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>14/11/2020 06:20</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>14/11/2020 03:54</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -24498,7 +24498,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>14/11/2020 03:54</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>21/11/2020 02:30</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>21/11/2020 02:30</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>13/11/2020 07:56</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>13/11/2020 07:56</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>13/11/2020 07:32</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -24707,7 +24707,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>13/11/2020 07:32</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -24755,7 +24755,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>13/11/2020 06:46</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24780,7 +24780,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>13/11/2020 06:46</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>15/11/2020 04:03</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>15/11/2020 04:03</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -24901,7 +24901,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>13/11/2020 09:20</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -24921,7 +24921,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>13/11/2020 09:20</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -24969,7 +24969,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>14/11/2020 05:30</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24994,7 +24994,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>14/11/2020 05:30</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -25042,7 +25042,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>14/11/2020 07:44</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>14/11/2020 07:44</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>20/11/2020 05:04</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>20/11/2020 05:04</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -25178,7 +25178,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>05/12/2020 09:37</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>05/12/2020 09:37</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>20/11/2020 04:28</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25271,7 +25271,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>20/11/2020 04:28</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -25319,7 +25319,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>06/05/2022 03:47</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>06/05/2022 03:47</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -25387,7 +25387,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>18/06/2021 04:45</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -25407,7 +25407,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>18/06/2021 04:45</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -25455,7 +25455,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>05/05/2022 10:30</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>05/05/2022 10:30</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -25523,7 +25523,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>18/06/2021 04:05</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25548,7 +25548,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>18/06/2021 04:05</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>22/06/2021 07:22</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>22/06/2021 07:22</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -25664,7 +25664,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>23/06/2021 08:08</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -25684,7 +25684,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>23/06/2021 08:08</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -25732,7 +25732,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>21/04/2022 08:05</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -25752,7 +25752,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>21/04/2022 08:05</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -25800,7 +25800,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>15/06/2021 04:30</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -25820,7 +25820,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>15/06/2021 04:30</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>27/04/2022 08:47</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -25888,7 +25888,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>27/04/2022 08:47</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -25936,7 +25936,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>05/05/2022 08:50</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>05/05/2022 08:50</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>19/04/2022 08:19</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>19/04/2022 08:19</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>21/04/2022 03:43</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -26097,7 +26097,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>21/04/2022 03:43</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26170,7 +26170,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -26218,7 +26218,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>19/04/2022 04:01</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>19/04/2022 04:01</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -26286,7 +26286,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>19/04/2022 05:55</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>19/04/2022 05:55</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -26354,7 +26354,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>22/04/2022 03:50</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -26374,7 +26374,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>22/04/2022 03:50</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -26422,7 +26422,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>22/06/2021 06:32</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -26442,7 +26442,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>22/06/2021 06:32</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>22/06/2021 07:24</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26515,7 +26515,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>22/06/2021 07:24</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -26563,7 +26563,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>22/06/2021 08:13</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>22/06/2021 08:13</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -26631,7 +26631,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>22/06/2021 08:44</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -26651,7 +26651,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>22/06/2021 08:44</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -26699,7 +26699,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>22/06/2021 09:47</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>22/06/2021 09:47</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -26767,7 +26767,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>24/06/2021 04:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>24/06/2021 04:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>24/06/2021 07:54</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -26860,7 +26860,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>24/06/2021 07:54</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>24/06/2021 08:09</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -26928,7 +26928,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>24/06/2021 08:09</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>24/06/2021 09:00</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>24/06/2021 09:00</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -27044,7 +27044,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>24/06/2021 10:30</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>24/06/2021 10:30</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>25/06/2021 03:37</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>25/06/2021 03:37</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -27180,7 +27180,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>25/06/2021 04:13</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>25/06/2021 04:13</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>25/06/2021 04:25</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>25/06/2021 04:25</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>25/06/2021 04:55</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>25/06/2021 04:55</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>25/06/2021 05:26</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>25/06/2021 05:26</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27452,7 +27452,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>23/06/2021 10:18</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -27472,7 +27472,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>23/06/2021 10:18</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -27520,7 +27520,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>23/06/2021 09:00</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -27540,7 +27540,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>23/06/2021 09:00</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>23/06/2021 05:27</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>23/06/2021 05:27</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -27656,7 +27656,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>23/06/2021 03:56</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>23/06/2021 03:56</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -27724,7 +27724,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>25/06/2021 05:16</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>25/06/2021 05:16</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27792,7 +27792,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>24/06/2021 09:53</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>24/06/2021 09:53</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>24/06/2021 08:48</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -27880,7 +27880,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>24/06/2021 08:48</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>24/06/2021 07:56</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -27948,7 +27948,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>24/06/2021 07:56</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>24/06/2021 06:30</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>24/06/2021 06:30</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>24/06/2021 05:14</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>24/06/2021 05:14</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>22/04/2022 00:00</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>22/04/2022 00:00</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>05/05/2022 10:03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -28230,7 +28230,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>05/05/2022 10:03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
@@ -28278,7 +28278,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>28/04/2022 06:39</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -28298,7 +28298,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>28/04/2022 06:39</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>26/04/2022 07:43</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>26/04/2022 07:43</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -28414,7 +28414,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>19/04/2022 08:44</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28439,7 +28439,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>19/04/2022 08:44</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -28487,7 +28487,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>22/04/2022 05:07</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>22/04/2022 05:07</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>23/03/2022 04:23</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28580,7 +28580,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>23/03/2022 04:23</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>03/05/2022 06:03</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>03/05/2022 06:03</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>22/03/2022 06:23</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -28716,7 +28716,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>22/03/2022 06:23</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>28/04/2022 03:25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>28/04/2022 03:25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>20/04/2022 03:18</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28862,7 +28862,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>20/04/2022 03:18</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -28910,7 +28910,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>24/03/2022 05:09</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -28930,7 +28930,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>24/03/2022 05:09</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>24/03/2022 04:43</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -28998,7 +28998,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>24/03/2022 04:43</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
@@ -29046,7 +29046,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>25/03/2022 07:19</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -29066,7 +29066,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>25/03/2022 07:19</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -29114,7 +29114,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>23/03/2022 09:08</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -29134,7 +29134,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>23/03/2022 09:08</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -29182,7 +29182,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>27/04/2022 06:29</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -29202,7 +29202,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>27/04/2022 06:29</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>29/04/2022 03:44</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -29270,7 +29270,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>29/04/2022 03:44</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>23/03/2022 04:19</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -29338,7 +29338,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>23/03/2022 04:19</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -29386,7 +29386,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>18/05/2022 06:13</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -29406,7 +29406,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>18/05/2022 06:13</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -29454,7 +29454,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>23/03/2022 06:15</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>23/03/2022 06:15</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -29522,7 +29522,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>03/05/2022 10:25</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -29542,7 +29542,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>03/05/2022 10:25</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -29590,7 +29590,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>04/05/2022 03:35</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -29610,7 +29610,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>04/05/2022 03:35</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -29658,7 +29658,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>20/04/2022 04:45</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -29678,7 +29678,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>20/04/2022 04:45</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>21/04/2022 04:42</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -29746,7 +29746,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>21/04/2022 04:42</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -29794,7 +29794,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>27/04/2022 09:12</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -29814,7 +29814,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>27/04/2022 09:12</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
@@ -29862,7 +29862,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>21/04/2022 04:50</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -29887,7 +29887,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>21/04/2022 04:50</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>28/04/2022 03:03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>28/04/2022 03:03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>20/04/2022 02:46</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -30023,7 +30023,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>20/04/2022 02:46</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>28/04/2022 04:03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -30091,7 +30091,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>28/04/2022 04:03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -30139,7 +30139,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>20/04/2022 07:04</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>20/04/2022 07:04</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -30207,7 +30207,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>23/03/2022 09:41</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -30227,7 +30227,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>23/03/2022 09:41</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N420" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>05/05/2022 03:10</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>05/05/2022 03:10</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -30348,7 +30348,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>03/05/2022 09:06</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -30368,7 +30368,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>03/05/2022 09:06</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>20/04/2022 03:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -30436,7 +30436,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>20/04/2022 03:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>05/05/2022 00:00</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30509,7 +30509,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>05/05/2022 00:00</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>29/04/2022 04:39</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -30577,7 +30577,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>29/04/2022 04:39</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -30625,7 +30625,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>05/05/2022 05:11</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -30645,7 +30645,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>05/05/2022 05:11</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -30693,7 +30693,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>20/04/2022 07:58</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -30713,7 +30713,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>20/04/2022 07:58</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -30761,7 +30761,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -30786,7 +30786,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -30834,7 +30834,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>24/03/2022 07:09</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -30854,7 +30854,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>24/03/2022 07:09</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -30902,7 +30902,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>17/05/2022 10:34</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -30922,7 +30922,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>17/05/2022 10:34</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -30970,7 +30970,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>17/05/2022 09:19</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>17/05/2022 09:19</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -31038,7 +31038,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>23/03/2022 08:04</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -31058,7 +31058,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>23/03/2022 08:04</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -31106,7 +31106,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>26/04/2022 08:44</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -31126,7 +31126,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>26/04/2022 08:44</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -31174,7 +31174,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>25/03/2022 00:00</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>25/03/2022 00:00</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>17/05/2022 06:00</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -31267,7 +31267,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>17/05/2022 06:00</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>17/05/2022 04:14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -31335,7 +31335,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>17/05/2022 04:14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -31383,7 +31383,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>22/03/2022 09:43</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -31403,7 +31403,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>22/03/2022 09:43</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
@@ -31451,7 +31451,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>24/03/2022 06:58</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31476,7 +31476,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>24/03/2022 06:58</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>23/03/2022 06:46</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -31544,7 +31544,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>23/03/2022 06:46</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N439" t="inlineStr">
@@ -31592,7 +31592,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>18/05/2022 03:57</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -31612,7 +31612,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>18/05/2022 03:57</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N440" t="inlineStr">
@@ -31660,7 +31660,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>26/04/2022 05:42</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -31680,7 +31680,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>26/04/2022 05:42</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -31728,7 +31728,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>17/05/2022 11:27</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -31748,7 +31748,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>17/05/2022 11:27</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
@@ -31796,7 +31796,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>22/03/2022 10:24</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>22/03/2022 10:24</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -31864,7 +31864,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>22/03/2022 07:48</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -31884,7 +31884,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>22/03/2022 07:48</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N444" t="inlineStr">
@@ -31932,7 +31932,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>25/03/2022 00:00</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -31957,7 +31957,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>25/03/2022 00:00</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N445" t="inlineStr">
@@ -32005,7 +32005,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>05/11/2021 06:47</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -32025,7 +32025,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>05/11/2021 06:47</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -32073,7 +32073,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>05/11/2021 05:01</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>05/11/2021 05:01</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
@@ -32141,7 +32141,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>05/11/2021 10:47</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -32161,7 +32161,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>05/11/2021 10:47</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N448" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>06/11/2021 04:12</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -32229,7 +32229,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>06/11/2021 04:12</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N449" t="inlineStr">
@@ -32277,7 +32277,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>06/11/2021 05:45</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32302,7 +32302,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>06/11/2021 05:45</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>06/11/2021 08:39</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -32370,7 +32370,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>06/11/2021 08:39</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -32418,7 +32418,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>06/11/2021 09:09</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -32438,7 +32438,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>06/11/2021 09:09</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N452" t="inlineStr">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>06/11/2021 06:41</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -32506,7 +32506,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>06/11/2021 06:41</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -32554,7 +32554,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>06/11/2021 11:12</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -32579,7 +32579,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>06/11/2021 11:12</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">
@@ -32627,7 +32627,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>24/03/2022 11:29</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -32647,7 +32647,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>24/03/2022 11:29</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>23/05/2022 03:00</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -32715,7 +32715,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>23/05/2022 03:00</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>23/05/2022 03:05</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -32783,7 +32783,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>23/05/2022 03:05</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N457" t="inlineStr">

--- a/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_1/P05_1_minimal_metadata.xlsx
@@ -13364,10 +13364,10 @@
         </is>
       </c>
       <c r="C183">
-        <v>55.639</v>
+        <v>55.6393</v>
       </c>
       <c r="D183">
-        <v>9.6615</v>
+        <v>9.662100000000001</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -18381,10 +18381,10 @@
         </is>
       </c>
       <c r="C252">
-        <v>55.3341</v>
+        <v>55.3518</v>
       </c>
       <c r="D252">
-        <v>8.771800000000001</v>
+        <v>9.2178</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -27911,10 +27911,10 @@
         </is>
       </c>
       <c r="C387">
-        <v>54.8859</v>
+        <v>54.8847</v>
       </c>
       <c r="D387">
-        <v>12.0237</v>
+        <v>12.0241</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -29845,10 +29845,10 @@
         </is>
       </c>
       <c r="C415">
-        <v>55.5438</v>
+        <v>55.4573</v>
       </c>
       <c r="D415">
-        <v>11.6021</v>
+        <v>12.025</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -32678,10 +32678,10 @@
         </is>
       </c>
       <c r="C456">
-        <v>57.0145</v>
+        <v>55.7307</v>
       </c>
       <c r="D456">
-        <v>9.985200000000001</v>
+        <v>12.5041</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -32746,10 +32746,10 @@
         </is>
       </c>
       <c r="C457">
-        <v>57.0145</v>
+        <v>55.7336</v>
       </c>
       <c r="D457">
-        <v>9.985200000000001</v>
+        <v>12.1678</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
